--- a/data/pca/factorExposure/factorExposure_2017-01-13.xlsx
+++ b/data/pca/factorExposure/factorExposure_2017-01-13.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,15 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +714,88 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>0.007646024297610016</v>
+        <v>0.01330371010023991</v>
       </c>
       <c r="C2">
-        <v>-0.01564898505130928</v>
+        <v>0.03902733361165064</v>
       </c>
       <c r="D2">
-        <v>0.03636873786093877</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.0317340775041905</v>
+      </c>
+      <c r="E2">
+        <v>-0.05092120563566718</v>
+      </c>
+      <c r="F2">
+        <v>0.0141414739864426</v>
+      </c>
+      <c r="G2">
+        <v>-0.1072045240328036</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>0.05442569681254037</v>
+        <v>0.03827155737439722</v>
       </c>
       <c r="C3">
-        <v>-0.09786092399739456</v>
+        <v>0.09296353578748059</v>
       </c>
       <c r="D3">
-        <v>0.05691897025733197</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>0.01898500165419741</v>
+      </c>
+      <c r="E3">
+        <v>-0.1044705699322951</v>
+      </c>
+      <c r="F3">
+        <v>0.02240127515009351</v>
+      </c>
+      <c r="G3">
+        <v>-0.1328297952690109</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>0.05568123239661197</v>
+        <v>0.0544302005925392</v>
       </c>
       <c r="C4">
-        <v>-0.04996520876264576</v>
+        <v>0.06310954846211554</v>
       </c>
       <c r="D4">
-        <v>0.04392309189212808</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0.02659797956510451</v>
+      </c>
+      <c r="E4">
+        <v>-0.04966795543447539</v>
+      </c>
+      <c r="F4">
+        <v>0.005862779747304808</v>
+      </c>
+      <c r="G4">
+        <v>-0.1022917179662128</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,136 +806,226 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>0.01863905781588305</v>
+        <v>0.03250613814062282</v>
       </c>
       <c r="C6">
-        <v>-0.04040960866422569</v>
+        <v>0.0460812527230505</v>
       </c>
       <c r="D6">
-        <v>0.03675574334731708</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.0192089312658054</v>
+      </c>
+      <c r="E6">
+        <v>-0.05384322964616026</v>
+      </c>
+      <c r="F6">
+        <v>0.008288942329275333</v>
+      </c>
+      <c r="G6">
+        <v>-0.08526230112120674</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>0.01246081460698472</v>
+        <v>0.02019439625587632</v>
       </c>
       <c r="C7">
-        <v>-0.02897249172581411</v>
+        <v>0.03536302930864985</v>
       </c>
       <c r="D7">
-        <v>0.0284497224208926</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0.01528562073642087</v>
+      </c>
+      <c r="E7">
+        <v>-0.02456471501596431</v>
+      </c>
+      <c r="F7">
+        <v>-0.002346886691967001</v>
+      </c>
+      <c r="G7">
+        <v>-0.1260268546439228</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>0.0007933267951766897</v>
+        <v>0.003964195485794082</v>
       </c>
       <c r="C8">
-        <v>0.0002553807305567124</v>
+        <v>0.01964740331575687</v>
       </c>
       <c r="D8">
-        <v>0.0004369208964782228</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0.0044131953258749</v>
+      </c>
+      <c r="E8">
+        <v>-0.0356278905076398</v>
+      </c>
+      <c r="F8">
+        <v>0.004445365063772701</v>
+      </c>
+      <c r="G8">
+        <v>-0.06981318857606728</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>0.02344872869460446</v>
+        <v>0.03295067500959978</v>
       </c>
       <c r="C9">
-        <v>-0.03081386340341429</v>
+        <v>0.04525454712563429</v>
       </c>
       <c r="D9">
-        <v>0.02954574004125428</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>0.01731085010900839</v>
+      </c>
+      <c r="E9">
+        <v>-0.034231744871763</v>
+      </c>
+      <c r="F9">
+        <v>0.00135429899015223</v>
+      </c>
+      <c r="G9">
+        <v>-0.1013896355778223</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>0.1062933910024207</v>
+        <v>0.0974863752472304</v>
       </c>
       <c r="C10">
-        <v>0.1464342832657432</v>
+        <v>-0.1905528070807626</v>
       </c>
       <c r="D10">
-        <v>-0.1140371910908757</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>-0.01560499941764241</v>
+      </c>
+      <c r="E10">
+        <v>-0.01509699827518608</v>
+      </c>
+      <c r="F10">
+        <v>0.02500176970677425</v>
+      </c>
+      <c r="G10">
+        <v>-0.05042524229960977</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>0.03220477973088913</v>
+        <v>0.03596027868322563</v>
       </c>
       <c r="C11">
-        <v>-0.05123999421498428</v>
+        <v>0.05196920677568544</v>
       </c>
       <c r="D11">
-        <v>0.02412682067201051</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>0.003020648679151638</v>
+      </c>
+      <c r="E11">
+        <v>-0.02606177470182231</v>
+      </c>
+      <c r="F11">
+        <v>-0.01393652633839409</v>
+      </c>
+      <c r="G11">
+        <v>-0.08231203840806349</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>0.03115705474210945</v>
+        <v>0.03763541540805724</v>
       </c>
       <c r="C12">
-        <v>-0.04123369474286274</v>
+        <v>0.04620070822034499</v>
       </c>
       <c r="D12">
-        <v>0.02431536373634049</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>0.006947559553138958</v>
+      </c>
+      <c r="E12">
+        <v>-0.01513032408548395</v>
+      </c>
+      <c r="F12">
+        <v>-0.002455983483018109</v>
+      </c>
+      <c r="G12">
+        <v>-0.07791093717978555</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>0.007660085203906741</v>
+        <v>0.009931139155270875</v>
       </c>
       <c r="C13">
-        <v>-0.01466006589901559</v>
+        <v>0.03465014687208996</v>
       </c>
       <c r="D13">
-        <v>0.03286766638602418</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>0.02965141703536913</v>
+      </c>
+      <c r="E13">
+        <v>-0.06029269811516626</v>
+      </c>
+      <c r="F13">
+        <v>0.01498571180607408</v>
+      </c>
+      <c r="G13">
+        <v>-0.1393963774493368</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>0.003236480762466343</v>
+        <v>0.008936919861167309</v>
       </c>
       <c r="C14">
-        <v>-0.01765036119554535</v>
+        <v>0.02493802288146033</v>
       </c>
       <c r="D14">
-        <v>0.01851393136590227</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>0.01148454195767623</v>
+      </c>
+      <c r="E14">
+        <v>-0.01925875260869617</v>
+      </c>
+      <c r="F14">
+        <v>0.007328377118395288</v>
+      </c>
+      <c r="G14">
+        <v>-0.1163627725518059</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -901,24 +1036,42 @@
       <c r="D15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>0.02749379877377084</v>
+        <v>0.03399726553056954</v>
       </c>
       <c r="C16">
-        <v>-0.0354978991874</v>
+        <v>0.04454053799011885</v>
       </c>
       <c r="D16">
-        <v>0.0158156429679111</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>0.002445466713479407</v>
+      </c>
+      <c r="E16">
+        <v>-0.02115929201262257</v>
+      </c>
+      <c r="F16">
+        <v>0.004501720045401096</v>
+      </c>
+      <c r="G16">
+        <v>-0.0846102387353371</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1082,19 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1105,203 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>0.02302566753694776</v>
+        <v>0.01808086970597605</v>
       </c>
       <c r="C19">
-        <v>-0.03918059174617674</v>
+        <v>0.04541502298512616</v>
       </c>
       <c r="D19">
-        <v>0.03335756693010119</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>0.02245437720637711</v>
+      </c>
+      <c r="E19">
+        <v>-0.09566076274102391</v>
+      </c>
+      <c r="F19">
+        <v>0.01372428295492893</v>
+      </c>
+      <c r="G19">
+        <v>-0.1384021854781612</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>0.008065690172422899</v>
+        <v>0.01436287284001216</v>
       </c>
       <c r="C20">
-        <v>-0.02529896430181368</v>
+        <v>0.03707426714800565</v>
       </c>
       <c r="D20">
-        <v>0.02585128761304703</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>0.01580178773043227</v>
+      </c>
+      <c r="E20">
+        <v>-0.04536462032247698</v>
+      </c>
+      <c r="F20">
+        <v>0.0262563273885159</v>
+      </c>
+      <c r="G20">
+        <v>-0.1100190145214566</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>0.001197749199376593</v>
+        <v>0.006566365072659175</v>
       </c>
       <c r="C21">
-        <v>-0.01799431782047164</v>
+        <v>0.02974683402116485</v>
       </c>
       <c r="D21">
-        <v>0.02630046633323976</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>0.02179864903307352</v>
+      </c>
+      <c r="E21">
+        <v>-0.06368878092536802</v>
+      </c>
+      <c r="F21">
+        <v>0.01676243686026997</v>
+      </c>
+      <c r="G21">
+        <v>-0.1539995490771553</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>-0.001235221599845426</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>0.005603847794649389</v>
       </c>
       <c r="D22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>0.002535910107597546</v>
+      </c>
+      <c r="E22">
+        <v>-0.01928938975819866</v>
+      </c>
+      <c r="F22">
+        <v>-0.003340892497961786</v>
+      </c>
+      <c r="G22">
+        <v>-0.004244778420072222</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>-0.001210860302032596</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>0.005513566426405949</v>
       </c>
       <c r="D23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>0.002521579610327034</v>
+      </c>
+      <c r="E23">
+        <v>-0.01920593024362903</v>
+      </c>
+      <c r="F23">
+        <v>-0.003093565781559935</v>
+      </c>
+      <c r="G23">
+        <v>-0.004101920703743919</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>0.02202888984067787</v>
+        <v>0.03033959315667279</v>
       </c>
       <c r="C24">
-        <v>-0.03930483122063658</v>
+        <v>0.04893157323092117</v>
       </c>
       <c r="D24">
-        <v>0.02453207055791052</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>0.007576698610290741</v>
+      </c>
+      <c r="E24">
+        <v>-0.01966684443023043</v>
+      </c>
+      <c r="F24">
+        <v>-0.004376858258507896</v>
+      </c>
+      <c r="G24">
+        <v>-0.08532704825879182</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>0.03933705610207457</v>
+        <v>0.04302100271462922</v>
       </c>
       <c r="C25">
-        <v>-0.04823280362708041</v>
+        <v>0.05618632787241414</v>
       </c>
       <c r="D25">
-        <v>0.03236903650632318</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>0.01172530729725776</v>
+      </c>
+      <c r="E25">
+        <v>-0.01291307253831527</v>
+      </c>
+      <c r="F25">
+        <v>-0.004835577132036902</v>
+      </c>
+      <c r="G25">
+        <v>-0.09227069655545682</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>0.005727242704215532</v>
+        <v>0.01473238559786185</v>
       </c>
       <c r="C26">
-        <v>0.008219234031923936</v>
+        <v>0.008921859112342905</v>
       </c>
       <c r="D26">
-        <v>0.01963431474829955</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>0.02447145640672119</v>
+      </c>
+      <c r="E26">
+        <v>-0.01464858694913638</v>
+      </c>
+      <c r="F26">
+        <v>0.006807016424121431</v>
+      </c>
+      <c r="G26">
+        <v>-0.08488641551374276</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,108 +1312,180 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>0.1344415538531385</v>
+        <v>0.1276570146180707</v>
       </c>
       <c r="C28">
-        <v>0.173963638745933</v>
+        <v>-0.244764456037786</v>
       </c>
       <c r="D28">
-        <v>-0.1204609712681512</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>-0.007174703868571279</v>
+      </c>
+      <c r="E28">
+        <v>0.00469814960364412</v>
+      </c>
+      <c r="F28">
+        <v>0.02297681393943842</v>
+      </c>
+      <c r="G28">
+        <v>-0.04406319336251472</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>0.008854769462940068</v>
+        <v>0.008031659367028451</v>
       </c>
       <c r="C29">
-        <v>-0.01430647464305102</v>
+        <v>0.02061956380655694</v>
       </c>
       <c r="D29">
-        <v>0.01492109791157776</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>0.01026331883949423</v>
+      </c>
+      <c r="E29">
+        <v>-0.01172619943888862</v>
+      </c>
+      <c r="F29">
+        <v>0.01160443770302409</v>
+      </c>
+      <c r="G29">
+        <v>-0.1060847694106996</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>0.03016245850930555</v>
+        <v>0.03809440812313996</v>
       </c>
       <c r="C30">
-        <v>-0.05842784884635667</v>
+        <v>0.06259888750784399</v>
       </c>
       <c r="D30">
-        <v>0.05642244229732359</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>0.03161554999462075</v>
+      </c>
+      <c r="E30">
+        <v>-0.07761995706490132</v>
+      </c>
+      <c r="F30">
+        <v>-0.01516918872854652</v>
+      </c>
+      <c r="G30">
+        <v>-0.1237750796212141</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>0.03636393856689806</v>
+        <v>0.05333533143836493</v>
       </c>
       <c r="C31">
-        <v>-0.01924585566103002</v>
+        <v>0.03710115052461378</v>
       </c>
       <c r="D31">
-        <v>0.009295720464472294</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>0.004106479416080157</v>
+      </c>
+      <c r="E31">
+        <v>7.586513335509793e-05</v>
+      </c>
+      <c r="F31">
+        <v>0.0354073660999366</v>
+      </c>
+      <c r="G31">
+        <v>-0.09718575024256494</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>0.003271797729143713</v>
+        <v>0.002065938389776581</v>
       </c>
       <c r="C32">
-        <v>-0.02916455307587307</v>
+        <v>0.01842399876574382</v>
       </c>
       <c r="D32">
-        <v>0.008116865385606702</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.001290041623682788</v>
+      </c>
+      <c r="E32">
+        <v>-0.05074925696911203</v>
+      </c>
+      <c r="F32">
+        <v>-0.02354468599508333</v>
+      </c>
+      <c r="G32">
+        <v>-0.07502327259366361</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>0.02298347101765068</v>
+        <v>0.02640284868969399</v>
       </c>
       <c r="C33">
-        <v>-0.04215134369185107</v>
+        <v>0.04607492316359956</v>
       </c>
       <c r="D33">
-        <v>0.03315693926117932</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>0.01806898579227563</v>
+      </c>
+      <c r="E33">
+        <v>-0.06470600358977192</v>
+      </c>
+      <c r="F33">
+        <v>-0.002621030426094012</v>
+      </c>
+      <c r="G33">
+        <v>-0.1582901082446829</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>0.04435471292709508</v>
+        <v>0.04169046487122256</v>
       </c>
       <c r="C34">
-        <v>-0.05663764170699345</v>
+        <v>0.05947096416609439</v>
       </c>
       <c r="D34">
-        <v>0.01740651185589585</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.003887291493661468</v>
+      </c>
+      <c r="E34">
+        <v>-0.01897614253605823</v>
+      </c>
+      <c r="F34">
+        <v>-0.01841432008317086</v>
+      </c>
+      <c r="G34">
+        <v>-0.08414642184790663</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1181,24 +1496,42 @@
       <c r="D35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>0.01029208797021972</v>
+        <v>0.01490627599155803</v>
       </c>
       <c r="C36">
-        <v>0.004349094455033412</v>
+        <v>0.005407463570612724</v>
       </c>
       <c r="D36">
-        <v>0.008093507846713779</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>0.0135498766381869</v>
+      </c>
+      <c r="E36">
+        <v>-0.01829599463666154</v>
+      </c>
+      <c r="F36">
+        <v>0.007923624410714728</v>
+      </c>
+      <c r="G36">
+        <v>-0.09669694257476615</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,108 +1542,180 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>0.02691798011289811</v>
+        <v>0.03000379777384846</v>
       </c>
       <c r="C38">
-        <v>-0.02330020438790847</v>
+        <v>0.02298636217437239</v>
       </c>
       <c r="D38">
-        <v>-0.0007101008729741499</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>-0.006671814540369989</v>
+      </c>
+      <c r="E38">
+        <v>-0.01630726172941385</v>
+      </c>
+      <c r="F38">
+        <v>0.0133568842033742</v>
+      </c>
+      <c r="G38">
+        <v>-0.08977339462175797</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>0.0227329031538935</v>
+        <v>0.03642235500041762</v>
       </c>
       <c r="C39">
-        <v>-0.07292428783290456</v>
+        <v>0.07648832681451179</v>
       </c>
       <c r="D39">
-        <v>0.04842716591721979</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>0.01310572487618811</v>
+      </c>
+      <c r="E39">
+        <v>-0.03786967775742877</v>
+      </c>
+      <c r="F39">
+        <v>-0.01384431119285033</v>
+      </c>
+      <c r="G39">
+        <v>-0.09345195879049123</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>0.01571425644841005</v>
+        <v>0.01600616613030038</v>
       </c>
       <c r="C40">
-        <v>-0.01201082515705394</v>
+        <v>0.03317170602571695</v>
       </c>
       <c r="D40">
-        <v>0.0163012992235818</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>0.01541571478231789</v>
+      </c>
+      <c r="E40">
+        <v>-0.03495853394948747</v>
+      </c>
+      <c r="F40">
+        <v>0.02570572166864953</v>
+      </c>
+      <c r="G40">
+        <v>-0.1240760731604532</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>0.01182367035748398</v>
+        <v>0.01851651050104701</v>
       </c>
       <c r="C41">
-        <v>0.005752689273240769</v>
+        <v>-0.00144762008844291</v>
       </c>
       <c r="D41">
-        <v>-0.0015623661853119</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>0.005615272381178892</v>
+      </c>
+      <c r="E41">
+        <v>-0.01544042106795124</v>
+      </c>
+      <c r="F41">
+        <v>0.0133726125781907</v>
+      </c>
+      <c r="G41">
+        <v>-0.09065576233377175</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B42">
-        <v>0.007425770377993904</v>
+        <v>0.004922372296791495</v>
       </c>
       <c r="C42">
-        <v>-0.007847181434380766</v>
+        <v>0.02887555086233412</v>
       </c>
       <c r="D42">
-        <v>0.1064109153132877</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
+        <v>0.08441434563127383</v>
+      </c>
+      <c r="E42">
+        <v>0.006979131270475798</v>
+      </c>
+      <c r="F42">
+        <v>0.032648309601114</v>
+      </c>
+      <c r="G42">
+        <v>0.01707014201290503</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>0.0279510724282546</v>
+        <v>0.03306016974939503</v>
       </c>
       <c r="C43">
-        <v>-0.005968562153554608</v>
+        <v>0.01236953697000633</v>
       </c>
       <c r="D43">
-        <v>0.002457503535097401</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>0.007214952104331518</v>
+      </c>
+      <c r="E43">
+        <v>-0.03350456984596806</v>
+      </c>
+      <c r="F43">
+        <v>0.01078565298691911</v>
+      </c>
+      <c r="G43">
+        <v>-0.119953739904255</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>0.01296987737165129</v>
+        <v>0.01288178225312306</v>
       </c>
       <c r="C44">
-        <v>-0.04674505936543747</v>
+        <v>0.05198324669106896</v>
       </c>
       <c r="D44">
-        <v>0.02811742008428451</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>0.0082473442799484</v>
+      </c>
+      <c r="E44">
+        <v>-0.0374500059926169</v>
+      </c>
+      <c r="F44">
+        <v>0.01912397732552777</v>
+      </c>
+      <c r="G44">
+        <v>-0.1196333960201942</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1726,88 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>-0.0009073683009760017</v>
+        <v>0.009555375187185015</v>
       </c>
       <c r="C46">
-        <v>0.0006894371758174273</v>
+        <v>0.01333870671192676</v>
       </c>
       <c r="D46">
-        <v>0.0118494007417338</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>0.01297927754180157</v>
+      </c>
+      <c r="E46">
+        <v>-0.002523399497549449</v>
+      </c>
+      <c r="F46">
+        <v>0.01580998207880217</v>
+      </c>
+      <c r="G46">
+        <v>-0.1110802633249905</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>0.06050067097952661</v>
+        <v>0.08129578821179342</v>
       </c>
       <c r="C47">
-        <v>-0.06013179979550985</v>
+        <v>0.06865167675070794</v>
       </c>
       <c r="D47">
-        <v>0.02055680478341432</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.005136214020249636</v>
+      </c>
+      <c r="E47">
+        <v>0.008189569905916719</v>
+      </c>
+      <c r="F47">
+        <v>0.0437298161795011</v>
+      </c>
+      <c r="G47">
+        <v>-0.08784398412030915</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>0.01095927973216678</v>
+        <v>0.01789337290323023</v>
       </c>
       <c r="C48">
-        <v>-0.005350419622376823</v>
+        <v>0.009706035901380106</v>
       </c>
       <c r="D48">
-        <v>0.002173094098574758</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>0.003180958747948685</v>
+      </c>
+      <c r="E48">
+        <v>-0.01268262208310639</v>
+      </c>
+      <c r="F48">
+        <v>0.0195166246825748</v>
+      </c>
+      <c r="G48">
+        <v>-0.1068119228163372</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1818,65 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>0.06866425370885169</v>
+        <v>0.07455840494787662</v>
       </c>
       <c r="C50">
-        <v>-0.05800801243345375</v>
+        <v>0.06752811518712526</v>
       </c>
       <c r="D50">
-        <v>0.01904433327721692</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.001835811045123896</v>
+      </c>
+      <c r="E50">
+        <v>0.00423193776795155</v>
+      </c>
+      <c r="F50">
+        <v>0.04477957509162103</v>
+      </c>
+      <c r="G50">
+        <v>-0.1026797559644455</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>0.01093063255059908</v>
+        <v>0.0117838474535706</v>
       </c>
       <c r="C51">
-        <v>-0.02687035355856382</v>
+        <v>0.03365813882501646</v>
       </c>
       <c r="D51">
-        <v>0.02131600919761505</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>0.01203632482267244</v>
+      </c>
+      <c r="E51">
+        <v>-0.03830552586840568</v>
+      </c>
+      <c r="F51">
+        <v>-0.007772592699619644</v>
+      </c>
+      <c r="G51">
+        <v>-0.1167908372611499</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,136 +1887,226 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>0.08450704532051177</v>
+        <v>0.08384424376630775</v>
       </c>
       <c r="C53">
-        <v>-0.07975914520710693</v>
+        <v>0.08189829878697914</v>
       </c>
       <c r="D53">
-        <v>0.02877391369828772</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.004231510756557407</v>
+      </c>
+      <c r="E53">
+        <v>0.03012658178310114</v>
+      </c>
+      <c r="F53">
+        <v>0.04896587313908933</v>
+      </c>
+      <c r="G53">
+        <v>-0.09361609310785629</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>0.02636867866477109</v>
+        <v>0.03158573825971023</v>
       </c>
       <c r="C54">
-        <v>-0.00212566215311746</v>
+        <v>0.01364902765663242</v>
       </c>
       <c r="D54">
-        <v>-0.006693988624971028</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.0001737641492398955</v>
+      </c>
+      <c r="E54">
+        <v>-0.0247285047856413</v>
+      </c>
+      <c r="F54">
+        <v>0.01195500924219028</v>
+      </c>
+      <c r="G54">
+        <v>-0.1101216650229037</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>0.06322565302378591</v>
+        <v>0.0773663223037377</v>
       </c>
       <c r="C55">
-        <v>-0.06413187348361246</v>
+        <v>0.0668454477698199</v>
       </c>
       <c r="D55">
-        <v>0.02261596418384438</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.005906788635964126</v>
+      </c>
+      <c r="E55">
+        <v>0.0311516008117684</v>
+      </c>
+      <c r="F55">
+        <v>0.04869193720468473</v>
+      </c>
+      <c r="G55">
+        <v>-0.07188967396090444</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>0.1289673619025497</v>
+        <v>0.1388452815134417</v>
       </c>
       <c r="C56">
-        <v>-0.1116391300767413</v>
+        <v>0.1034266973178635</v>
       </c>
       <c r="D56">
-        <v>0.03252756653358366</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>-0.01325167998997746</v>
+      </c>
+      <c r="E56">
+        <v>0.03704947313557195</v>
+      </c>
+      <c r="F56">
+        <v>0.05714519135726066</v>
+      </c>
+      <c r="G56">
+        <v>-0.05671294065803032</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B57">
-        <v>0.01014878093809758</v>
+        <v>0.003766754373620571</v>
       </c>
       <c r="C57">
-        <v>0.001750968346227349</v>
+        <v>0.003697916723407203</v>
       </c>
       <c r="D57">
-        <v>0.02266734399905549</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
+        <v>0.02300439448480095</v>
+      </c>
+      <c r="E57">
+        <v>-0.02442572763518649</v>
+      </c>
+      <c r="F57">
+        <v>0.0009795399949801542</v>
+      </c>
+      <c r="G57">
+        <v>-0.01417583937396251</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>0.03742654675036061</v>
+        <v>0.0390909861736525</v>
       </c>
       <c r="C58">
-        <v>-0.05418881679602466</v>
+        <v>0.02789774118441936</v>
       </c>
       <c r="D58">
-        <v>0.02406890552342273</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>0.03582744512798044</v>
+      </c>
+      <c r="E58">
+        <v>-0.7530480975234295</v>
+      </c>
+      <c r="F58">
+        <v>0.5556929316791063</v>
+      </c>
+      <c r="G58">
+        <v>0.2861470641274521</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>0.1782104143996038</v>
+        <v>0.1559412964740312</v>
       </c>
       <c r="C59">
-        <v>0.1651917483020403</v>
+        <v>-0.2108210654196187</v>
       </c>
       <c r="D59">
-        <v>-0.1300156914159514</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>-0.0107974921442324</v>
+      </c>
+      <c r="E59">
+        <v>-0.02123415515719848</v>
+      </c>
+      <c r="F59">
+        <v>0.006131157518360144</v>
+      </c>
+      <c r="G59">
+        <v>-0.03261248466891204</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>0.3077093241513561</v>
+        <v>0.2859896794611119</v>
       </c>
       <c r="C60">
-        <v>-0.1282540946315735</v>
+        <v>0.1070775165800882</v>
       </c>
       <c r="D60">
-        <v>0.03695051952540854</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>0.01725737641651361</v>
+      </c>
+      <c r="E60">
+        <v>-0.1148777027365529</v>
+      </c>
+      <c r="F60">
+        <v>-0.3099807712314962</v>
+      </c>
+      <c r="G60">
+        <v>0.1740928294524526</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>0.02529483537000651</v>
+        <v>0.03916055166848706</v>
       </c>
       <c r="C61">
-        <v>-0.0587379382470969</v>
+        <v>0.06250687774721501</v>
       </c>
       <c r="D61">
-        <v>0.03281696490344396</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>0.006935403815624375</v>
+      </c>
+      <c r="E61">
+        <v>-0.03555660906254264</v>
+      </c>
+      <c r="F61">
+        <v>-0.007252823838032628</v>
+      </c>
+      <c r="G61">
+        <v>-0.09138298688349471</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +2117,180 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>0.0122956670130362</v>
+        <v>0.01483653417101762</v>
       </c>
       <c r="C63">
-        <v>-0.02456661211576271</v>
+        <v>0.02705518879378369</v>
       </c>
       <c r="D63">
-        <v>0.02050553964363759</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>0.009092207067979039</v>
+      </c>
+      <c r="E63">
+        <v>-0.009885422897717457</v>
+      </c>
+      <c r="F63">
+        <v>0.01565589013442908</v>
+      </c>
+      <c r="G63">
+        <v>-0.09504699910035445</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>0.04277057987042469</v>
+        <v>0.05040108913008078</v>
       </c>
       <c r="C64">
-        <v>-0.03303446567963372</v>
+        <v>0.04542947964392317</v>
       </c>
       <c r="D64">
-        <v>0.01722928118580084</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>0.006177432472520979</v>
+      </c>
+      <c r="E64">
+        <v>-0.008976604134325853</v>
+      </c>
+      <c r="F64">
+        <v>-0.007797447249557146</v>
+      </c>
+      <c r="G64">
+        <v>-0.09378663816765567</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>0.07676916418196586</v>
+        <v>0.07052654573625061</v>
       </c>
       <c r="C65">
-        <v>-0.0709635452606046</v>
+        <v>0.0539638260957235</v>
       </c>
       <c r="D65">
-        <v>0.04475138881775412</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.01877824434197534</v>
+      </c>
+      <c r="E65">
+        <v>-0.05921396910362545</v>
+      </c>
+      <c r="F65">
+        <v>-0.009221723615180739</v>
+      </c>
+      <c r="G65">
+        <v>-0.04163208407070019</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>0.03959796951177356</v>
+        <v>0.04763152655305369</v>
       </c>
       <c r="C66">
-        <v>-0.1150572009348157</v>
+        <v>0.1021497521674067</v>
       </c>
       <c r="D66">
-        <v>0.06895504815990647</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>0.01412823239726743</v>
+      </c>
+      <c r="E66">
+        <v>-0.06237607787713852</v>
+      </c>
+      <c r="F66">
+        <v>-0.02210056892188297</v>
+      </c>
+      <c r="G66">
+        <v>-0.1004680365826365</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>0.05400055492405546</v>
+        <v>0.05415227585200409</v>
       </c>
       <c r="C67">
-        <v>-0.03298527216214162</v>
+        <v>0.0294008959100174</v>
       </c>
       <c r="D67">
-        <v>0.003817468753480331</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.005553900997775706</v>
+      </c>
+      <c r="E67">
+        <v>-0.004275722106531768</v>
+      </c>
+      <c r="F67">
+        <v>0.008612379506183097</v>
+      </c>
+      <c r="G67">
+        <v>-0.07671705278804446</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>0.1585986043943884</v>
+        <v>0.1552081414078351</v>
       </c>
       <c r="C68">
-        <v>0.2171408933497851</v>
+        <v>-0.2721435818302658</v>
       </c>
       <c r="D68">
-        <v>-0.1335348945190376</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.004568418647981718</v>
+      </c>
+      <c r="E68">
+        <v>0.01078491226771629</v>
+      </c>
+      <c r="F68">
+        <v>0.04538955494691168</v>
+      </c>
+      <c r="G68">
+        <v>-0.01198107412107421</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>0.06956266216890546</v>
+        <v>0.08307518971587625</v>
       </c>
       <c r="C69">
-        <v>-0.05966505284301936</v>
+        <v>0.0711584079210274</v>
       </c>
       <c r="D69">
-        <v>0.01411900780137797</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.008841713523348678</v>
+      </c>
+      <c r="E69">
+        <v>0.0172088906333356</v>
+      </c>
+      <c r="F69">
+        <v>0.02212170782556725</v>
+      </c>
+      <c r="G69">
+        <v>-0.1001375476270608</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,192 +2301,318 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>0.1533001139191494</v>
+        <v>0.1418754753728459</v>
       </c>
       <c r="C71">
-        <v>0.1714849332050138</v>
+        <v>-0.2331888087545197</v>
       </c>
       <c r="D71">
-        <v>-0.1192561263419283</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>-0.003153980908435191</v>
+      </c>
+      <c r="E71">
+        <v>-0.02423327715788447</v>
+      </c>
+      <c r="F71">
+        <v>0.0293679075885928</v>
+      </c>
+      <c r="G71">
+        <v>-0.05857937705750604</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>0.0650181484907351</v>
+        <v>0.08539137996035226</v>
       </c>
       <c r="C72">
-        <v>-0.07156336776523188</v>
+        <v>0.06395119816153809</v>
       </c>
       <c r="D72">
-        <v>0.02113896366963082</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>-0.006760425166357494</v>
+      </c>
+      <c r="E72">
+        <v>-0.009955591307413645</v>
+      </c>
+      <c r="F72">
+        <v>-0.02730850935290052</v>
+      </c>
+      <c r="G72">
+        <v>-0.08450878879932321</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>0.4144460610110676</v>
+        <v>0.3667967607089991</v>
       </c>
       <c r="C73">
-        <v>-0.1820438001823268</v>
+        <v>0.111638321226188</v>
       </c>
       <c r="D73">
-        <v>0.0583075320420758</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>0.03140436957251995</v>
+      </c>
+      <c r="E73">
+        <v>-0.2605721177903723</v>
+      </c>
+      <c r="F73">
+        <v>-0.5309577119070475</v>
+      </c>
+      <c r="G73">
+        <v>0.3192477491769977</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>0.09902889866491951</v>
+        <v>0.1067772328937213</v>
       </c>
       <c r="C74">
-        <v>-0.1193463495576885</v>
+        <v>0.1054996305849049</v>
       </c>
       <c r="D74">
-        <v>0.04299192819786804</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.009508432451314389</v>
+      </c>
+      <c r="E74">
+        <v>0.009979883843992966</v>
+      </c>
+      <c r="F74">
+        <v>0.05677818140563811</v>
+      </c>
+      <c r="G74">
+        <v>-0.07735622229787492</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>0.226695705021093</v>
+        <v>0.2498039023653258</v>
       </c>
       <c r="C75">
-        <v>-0.1751748886274976</v>
+        <v>0.1467672410596502</v>
       </c>
       <c r="D75">
-        <v>0.043055415839964</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.03249238575935799</v>
+      </c>
+      <c r="E75">
+        <v>0.09708944167075689</v>
+      </c>
+      <c r="F75">
+        <v>0.1308532369219298</v>
+      </c>
+      <c r="G75">
+        <v>-0.01823940935647048</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>0.1121310180039449</v>
+        <v>0.1191724065313126</v>
       </c>
       <c r="C76">
-        <v>-0.1214769868625122</v>
+        <v>0.1065510152602284</v>
       </c>
       <c r="D76">
-        <v>0.03424221829094263</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>-0.0184626307387587</v>
+      </c>
+      <c r="E76">
+        <v>0.0418944630449731</v>
+      </c>
+      <c r="F76">
+        <v>0.08123826992674391</v>
+      </c>
+      <c r="G76">
+        <v>-0.0716142214040144</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>0.04750914417318458</v>
+        <v>0.06912817566820155</v>
       </c>
       <c r="C77">
-        <v>-0.05444887381789742</v>
+        <v>0.04862233196557077</v>
       </c>
       <c r="D77">
-        <v>0.03234594793375405</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>0.01196855647688313</v>
+      </c>
+      <c r="E77">
+        <v>-0.0649880100978866</v>
+      </c>
+      <c r="F77">
+        <v>0.00546817521709502</v>
+      </c>
+      <c r="G77">
+        <v>-0.08341658909679049</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>0.04256595978720824</v>
+        <v>0.03965746950839903</v>
       </c>
       <c r="C78">
-        <v>-0.0513395868722233</v>
+        <v>0.05048674236887755</v>
       </c>
       <c r="D78">
-        <v>0.02579362971937327</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>0.008565109835903671</v>
+      </c>
+      <c r="E78">
+        <v>-0.04957826036860963</v>
+      </c>
+      <c r="F78">
+        <v>-0.02411356281197404</v>
+      </c>
+      <c r="G78">
+        <v>-0.09892754980812686</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B79">
-        <v>0</v>
+        <v>-0.001569980307214013</v>
       </c>
       <c r="C79">
-        <v>0</v>
+        <v>-0.001152729911157195</v>
       </c>
       <c r="D79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>0.0008003979651749913</v>
+      </c>
+      <c r="E79">
+        <v>-0.007089971596269413</v>
+      </c>
+      <c r="F79">
+        <v>0.001458834041545664</v>
+      </c>
+      <c r="G79">
+        <v>-0.007131807232378337</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>0.04670582186915435</v>
+        <v>0.04103773748794992</v>
       </c>
       <c r="C80">
-        <v>-0.05878383679466985</v>
+        <v>0.04763535648022769</v>
       </c>
       <c r="D80">
-        <v>0.03862982500608848</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>0.01490757837906331</v>
+      </c>
+      <c r="E80">
+        <v>-0.03863596314439124</v>
+      </c>
+      <c r="F80">
+        <v>0.003497917371817852</v>
+      </c>
+      <c r="G80">
+        <v>-0.05759838517749438</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>0.1254175484390017</v>
+        <v>0.1399185028810134</v>
       </c>
       <c r="C81">
-        <v>-0.09794415893164785</v>
+        <v>0.09008569819456703</v>
       </c>
       <c r="D81">
-        <v>0.02484633748636305</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.01598474768982415</v>
+      </c>
+      <c r="E81">
+        <v>0.06074568473790447</v>
+      </c>
+      <c r="F81">
+        <v>0.104589468036089</v>
+      </c>
+      <c r="G81">
+        <v>-0.03766712494640574</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>0.04263236358177185</v>
+        <v>0.1671300210528652</v>
       </c>
       <c r="C82">
-        <v>-0.03406752494732153</v>
+        <v>0.1129760954924146</v>
       </c>
       <c r="D82">
-        <v>0.01124910192400837</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.01753471712515189</v>
+      </c>
+      <c r="E82">
+        <v>0.1677286226384089</v>
+      </c>
+      <c r="F82">
+        <v>0.0495970648368446</v>
+      </c>
+      <c r="G82">
+        <v>-0.01561145336171326</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>0.02247147447000056</v>
+        <v>0.03323812765872983</v>
       </c>
       <c r="C83">
-        <v>-0.01726317541791941</v>
+        <v>0.02971592408989908</v>
       </c>
       <c r="D83">
-        <v>0.01101542743069113</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>0.00783357573375406</v>
+      </c>
+      <c r="E83">
+        <v>-0.04168024702205876</v>
+      </c>
+      <c r="F83">
+        <v>-0.02801452609270041</v>
+      </c>
+      <c r="G83">
+        <v>-0.05431960855815104</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -1867,164 +2623,272 @@
       <c r="D84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:4">
+      <c r="E84">
+        <v>0</v>
+      </c>
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>0.2203899931480703</v>
+        <v>0.2111561375460962</v>
       </c>
       <c r="C85">
-        <v>-0.1898470320734402</v>
+        <v>0.1408445662901332</v>
       </c>
       <c r="D85">
-        <v>0.06531803070932858</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.01837770743835332</v>
+      </c>
+      <c r="E85">
+        <v>0.1060455862755118</v>
+      </c>
+      <c r="F85">
+        <v>0.06281237406084224</v>
+      </c>
+      <c r="G85">
+        <v>0.01893936950906322</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>0.007343655154743373</v>
+        <v>0.01142634079202794</v>
       </c>
       <c r="C86">
-        <v>-0.01740718324627655</v>
+        <v>0.02397756468484519</v>
       </c>
       <c r="D86">
-        <v>0.01558953785280471</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>0.01388492707837284</v>
+      </c>
+      <c r="E86">
+        <v>-0.07263963260796849</v>
+      </c>
+      <c r="F86">
+        <v>-0.01727398575371809</v>
+      </c>
+      <c r="G86">
+        <v>-0.1719287964911089</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>0.007837507567974517</v>
+        <v>0.02084171255460636</v>
       </c>
       <c r="C87">
-        <v>-0.01259951648444829</v>
+        <v>0.01479366888358514</v>
       </c>
       <c r="D87">
-        <v>0.01505399040568594</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>0.01414622248992943</v>
+      </c>
+      <c r="E87">
+        <v>-0.09942588223181366</v>
+      </c>
+      <c r="F87">
+        <v>0.02745659594246563</v>
+      </c>
+      <c r="G87">
+        <v>-0.1119947447947075</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>0.08350086076996831</v>
+        <v>0.09002886436672006</v>
       </c>
       <c r="C88">
-        <v>-0.04776284556231746</v>
+        <v>0.06614410993901523</v>
       </c>
       <c r="D88">
-        <v>0.04009094697759499</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>0.02315041720901218</v>
+      </c>
+      <c r="E88">
+        <v>-0.007343371218119011</v>
+      </c>
+      <c r="F88">
+        <v>0.01413026464242804</v>
+      </c>
+      <c r="G88">
+        <v>-0.1056404274009339</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>0.2581503662914163</v>
+        <v>0.2274129353782322</v>
       </c>
       <c r="C89">
-        <v>0.2967899034446986</v>
+        <v>-0.3706210887251138</v>
       </c>
       <c r="D89">
-        <v>-0.1979662710513906</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.0002504935382405059</v>
+      </c>
+      <c r="E89">
+        <v>0.0280743393846898</v>
+      </c>
+      <c r="F89">
+        <v>0.01798108124972603</v>
+      </c>
+      <c r="G89">
+        <v>-0.08035645904578205</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>0.2235264916471539</v>
+        <v>0.2060200066389227</v>
       </c>
       <c r="C90">
-        <v>0.2615552019132342</v>
+        <v>-0.317609456278415</v>
       </c>
       <c r="D90">
-        <v>-0.1788889454478542</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>-0.00487490385004593</v>
+      </c>
+      <c r="E90">
+        <v>0.01458161608062559</v>
+      </c>
+      <c r="F90">
+        <v>0.04762584862817101</v>
+      </c>
+      <c r="G90">
+        <v>-0.04235875887018201</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>0.1796176236649772</v>
+        <v>0.1872529023502783</v>
       </c>
       <c r="C91">
-        <v>-0.1257122453355702</v>
+        <v>0.1337800731362776</v>
       </c>
       <c r="D91">
-        <v>0.02443748079007109</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>-0.02332565106492321</v>
+      </c>
+      <c r="E91">
+        <v>0.07932339035494446</v>
+      </c>
+      <c r="F91">
+        <v>0.1009968719379216</v>
+      </c>
+      <c r="G91">
+        <v>-0.0451138778330625</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>0.2157763455127251</v>
+        <v>0.1921480716158397</v>
       </c>
       <c r="C92">
-        <v>0.1755448417874965</v>
+        <v>-0.2625174454113197</v>
       </c>
       <c r="D92">
-        <v>-0.1687317024845629</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>-0.03819075259854045</v>
+      </c>
+      <c r="E92">
+        <v>-0.02087806300584738</v>
+      </c>
+      <c r="F92">
+        <v>0.05313632375079562</v>
+      </c>
+      <c r="G92">
+        <v>-0.0921051109462613</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>0.2419247684083361</v>
+        <v>0.2289007973133336</v>
       </c>
       <c r="C93">
-        <v>0.2410147040576538</v>
+        <v>-0.3152294872717101</v>
       </c>
       <c r="D93">
-        <v>-0.1763335325576736</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>-0.01046198620974122</v>
+      </c>
+      <c r="E93">
+        <v>-0.001709819465453371</v>
+      </c>
+      <c r="F93">
+        <v>0.0357707812285652</v>
+      </c>
+      <c r="G93">
+        <v>-0.05688361237053386</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>0.2420084724295556</v>
+        <v>0.3330263678963779</v>
       </c>
       <c r="C94">
-        <v>-0.1665137048533153</v>
+        <v>0.2062738178800805</v>
       </c>
       <c r="D94">
-        <v>0.05955886379430528</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.02881963939143761</v>
+      </c>
+      <c r="E94">
+        <v>0.3752569208823512</v>
+      </c>
+      <c r="F94">
+        <v>0.3963478834052229</v>
+      </c>
+      <c r="G94">
+        <v>0.3704358896050825</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>0.06377708288897306</v>
+        <v>0.08896217609897294</v>
       </c>
       <c r="C95">
-        <v>-0.1094560990244459</v>
+        <v>0.0740077545300023</v>
       </c>
       <c r="D95">
-        <v>0.0443630230847982</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.006445094563836518</v>
+      </c>
+      <c r="E95">
+        <v>-0.1298830841106433</v>
+      </c>
+      <c r="F95">
+        <v>-0.1602281792221656</v>
+      </c>
+      <c r="G95">
+        <v>-0.05745835903466813</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,10 +2899,19 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2049,24 +2922,42 @@
       <c r="D97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>0.2050848735939269</v>
+        <v>0.1916105709733587</v>
       </c>
       <c r="C98">
-        <v>-0.07863442238380758</v>
+        <v>0.04854385782602646</v>
       </c>
       <c r="D98">
-        <v>-0.006372113304397645</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.00895379546494098</v>
+      </c>
+      <c r="E98">
+        <v>-0.1312272791014917</v>
+      </c>
+      <c r="F98">
+        <v>-0.1963285032655963</v>
+      </c>
+      <c r="G98">
+        <v>0.06283347984862438</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +2968,19 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +2991,65 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>0.008580199619759827</v>
+        <v>0.007876346494303754</v>
       </c>
       <c r="C101">
-        <v>-0.01460406102225938</v>
+        <v>0.02050071882342272</v>
       </c>
       <c r="D101">
-        <v>0.01497042960511355</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>0.01007845651247956</v>
+      </c>
+      <c r="E101">
+        <v>-0.01123564788264855</v>
+      </c>
+      <c r="F101">
+        <v>0.01244297475343234</v>
+      </c>
+      <c r="G101">
+        <v>-0.1057597961179386</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>0.107953619218815</v>
+        <v>0.1214004622239633</v>
       </c>
       <c r="C102">
-        <v>-0.07946051998607544</v>
+        <v>0.08847338937518011</v>
       </c>
       <c r="D102">
-        <v>0.03424574350974538</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>8.25680064957966e-05</v>
+      </c>
+      <c r="E102">
+        <v>0.04364214053086215</v>
+      </c>
+      <c r="F102">
+        <v>0.01787063569559499</v>
+      </c>
+      <c r="G102">
+        <v>-0.01683215269008938</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,19 +3060,37 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B104">
-        <v>0.1370289945640099</v>
+        <v>0.02039522716939345</v>
       </c>
       <c r="C104">
-        <v>0.4994031425669249</v>
+        <v>-0.0285495735226551</v>
       </c>
       <c r="D104">
-        <v>0.8452199139106154</v>
+        <v>0.9861588663158544</v>
+      </c>
+      <c r="E104">
+        <v>0.08591947209397428</v>
+      </c>
+      <c r="F104">
+        <v>0.02213892198891849</v>
+      </c>
+      <c r="G104">
+        <v>0.03766548518287296</v>
       </c>
     </row>
   </sheetData>
